--- a/biology/Histoire de la zoologie et de la botanique/Theodor_Kirsch/Theodor_Kirsch.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Theodor_Kirsch/Theodor_Kirsch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Theodor Franz Wilhelm Kirsch, né le 29 septembre 1818 à Düben, près de Torgau, et mort le 8 juillet 1889 à Dresde, est un entomologiste allemand de Saxe, spécialiste des coléoptères.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Kirsch poursuit sa carrière au musée zoologique royal de Dresde, où il devient conservateur du département d'entomologie.
 Il a rédigé nombre d'articles à propos des insectes, certains en collaboration avec Ernst von Kiesenwetter.
@@ -544,7 +558,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1865 Beiträge zur Käferfauna von Bogotá, Berl. Entomologische Zeitschrift, 9: pp. 40–104.
 1875 Neue Käfer aus Malacca, Mitt. Kgl. Zool. Mus. Dresden, 1: pp. 3–34.
